--- a/data/trans_orig/P70A04_2007-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P70A04_2007-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB1FD4C7-EEBD-4868-B3E8-0B7D590144EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9059B8BE-D7BC-4993-BC26-0C8D141DC5D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FA09010E-FABE-48FC-9476-62FCF3C8C946}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2E6AB44F-CBEC-4757-AE1B-3E92C526B3FF}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -74,28 +74,28 @@
     <t>57,47%</t>
   </si>
   <si>
-    <t>40,12%</t>
-  </si>
-  <si>
-    <t>72,4%</t>
+    <t>41,28%</t>
+  </si>
+  <si>
+    <t>73,32%</t>
   </si>
   <si>
     <t>38,36%</t>
   </si>
   <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>64,9%</t>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>66,62%</t>
   </si>
   <si>
     <t>52,81%</t>
   </si>
   <si>
-    <t>38,97%</t>
-  </si>
-  <si>
-    <t>66,72%</t>
+    <t>39,37%</t>
+  </si>
+  <si>
+    <t>67,74%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>42,53%</t>
   </si>
   <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>59,88%</t>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>58,72%</t>
   </si>
   <si>
     <t>61,64%</t>
   </si>
   <si>
-    <t>35,1%</t>
-  </si>
-  <si>
-    <t>83,06%</t>
+    <t>33,38%</t>
+  </si>
+  <si>
+    <t>82,25%</t>
   </si>
   <si>
     <t>47,19%</t>
   </si>
   <si>
-    <t>33,28%</t>
-  </si>
-  <si>
-    <t>61,03%</t>
+    <t>32,26%</t>
+  </si>
+  <si>
+    <t>60,63%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>50,96%</t>
   </si>
   <si>
-    <t>44,11%</t>
-  </si>
-  <si>
-    <t>57,57%</t>
+    <t>44,32%</t>
+  </si>
+  <si>
+    <t>57,29%</t>
   </si>
   <si>
     <t>38,61%</t>
   </si>
   <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>49,8%</t>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>48,82%</t>
   </si>
   <si>
     <t>47,57%</t>
   </si>
   <si>
-    <t>42,15%</t>
-  </si>
-  <si>
-    <t>53,24%</t>
+    <t>41,72%</t>
+  </si>
+  <si>
+    <t>52,69%</t>
   </si>
   <si>
     <t>49,04%</t>
   </si>
   <si>
-    <t>42,43%</t>
-  </si>
-  <si>
-    <t>55,89%</t>
+    <t>42,71%</t>
+  </si>
+  <si>
+    <t>55,68%</t>
   </si>
   <si>
     <t>61,39%</t>
   </si>
   <si>
-    <t>50,2%</t>
-  </si>
-  <si>
-    <t>70,72%</t>
+    <t>51,18%</t>
+  </si>
+  <si>
+    <t>71,54%</t>
   </si>
   <si>
     <t>52,43%</t>
   </si>
   <si>
-    <t>46,76%</t>
-  </si>
-  <si>
-    <t>57,85%</t>
+    <t>47,31%</t>
+  </si>
+  <si>
+    <t>58,28%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -194,223 +194,223 @@
     <t>63,72%</t>
   </si>
   <si>
+    <t>58,86%</t>
+  </si>
+  <si>
+    <t>68,45%</t>
+  </si>
+  <si>
+    <t>54,21%</t>
+  </si>
+  <si>
+    <t>46,93%</t>
+  </si>
+  <si>
+    <t>60,65%</t>
+  </si>
+  <si>
+    <t>60,64%</t>
+  </si>
+  <si>
+    <t>56,68%</t>
+  </si>
+  <si>
+    <t>64,36%</t>
+  </si>
+  <si>
+    <t>36,28%</t>
+  </si>
+  <si>
+    <t>31,55%</t>
+  </si>
+  <si>
+    <t>41,14%</t>
+  </si>
+  <si>
+    <t>45,79%</t>
+  </si>
+  <si>
+    <t>39,35%</t>
+  </si>
+  <si>
+    <t>53,07%</t>
+  </si>
+  <si>
+    <t>39,36%</t>
+  </si>
+  <si>
+    <t>35,64%</t>
+  </si>
+  <si>
+    <t>43,32%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>62,66%</t>
+  </si>
+  <si>
+    <t>56,89%</t>
+  </si>
+  <si>
+    <t>68,05%</t>
+  </si>
+  <si>
+    <t>52,1%</t>
+  </si>
+  <si>
+    <t>43,81%</t>
+  </si>
+  <si>
+    <t>59,14%</t>
+  </si>
+  <si>
+    <t>58,94%</t>
+  </si>
+  <si>
+    <t>54,06%</t>
+  </si>
+  <si>
+    <t>63,27%</t>
+  </si>
+  <si>
+    <t>37,34%</t>
+  </si>
+  <si>
+    <t>31,95%</t>
+  </si>
+  <si>
+    <t>43,11%</t>
+  </si>
+  <si>
+    <t>47,9%</t>
+  </si>
+  <si>
+    <t>40,86%</t>
+  </si>
+  <si>
+    <t>56,19%</t>
+  </si>
+  <si>
+    <t>41,06%</t>
+  </si>
+  <si>
+    <t>36,73%</t>
+  </si>
+  <si>
+    <t>45,94%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>65,07%</t>
+  </si>
+  <si>
+    <t>60,31%</t>
+  </si>
+  <si>
+    <t>69,26%</t>
+  </si>
+  <si>
+    <t>53,72%</t>
+  </si>
+  <si>
+    <t>48,01%</t>
+  </si>
+  <si>
     <t>58,97%</t>
   </si>
   <si>
-    <t>68,04%</t>
-  </si>
-  <si>
-    <t>54,21%</t>
-  </si>
-  <si>
-    <t>47,67%</t>
-  </si>
-  <si>
-    <t>60,58%</t>
-  </si>
-  <si>
-    <t>60,64%</t>
-  </si>
-  <si>
-    <t>56,98%</t>
-  </si>
-  <si>
-    <t>64,38%</t>
-  </si>
-  <si>
-    <t>36,28%</t>
-  </si>
-  <si>
-    <t>31,96%</t>
+    <t>60,51%</t>
+  </si>
+  <si>
+    <t>57,12%</t>
+  </si>
+  <si>
+    <t>63,9%</t>
+  </si>
+  <si>
+    <t>34,93%</t>
+  </si>
+  <si>
+    <t>30,74%</t>
+  </si>
+  <si>
+    <t>39,69%</t>
+  </si>
+  <si>
+    <t>46,28%</t>
   </si>
   <si>
     <t>41,03%</t>
   </si>
   <si>
-    <t>45,79%</t>
-  </si>
-  <si>
-    <t>39,42%</t>
-  </si>
-  <si>
-    <t>52,33%</t>
-  </si>
-  <si>
-    <t>39,36%</t>
-  </si>
-  <si>
-    <t>35,62%</t>
-  </si>
-  <si>
-    <t>43,02%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>62,66%</t>
-  </si>
-  <si>
-    <t>57,44%</t>
-  </si>
-  <si>
-    <t>68,8%</t>
-  </si>
-  <si>
-    <t>52,1%</t>
-  </si>
-  <si>
-    <t>44,62%</t>
-  </si>
-  <si>
-    <t>58,71%</t>
-  </si>
-  <si>
-    <t>58,94%</t>
-  </si>
-  <si>
-    <t>54,74%</t>
-  </si>
-  <si>
-    <t>63,69%</t>
-  </si>
-  <si>
-    <t>37,34%</t>
-  </si>
-  <si>
-    <t>31,2%</t>
-  </si>
-  <si>
-    <t>42,56%</t>
-  </si>
-  <si>
-    <t>47,9%</t>
-  </si>
-  <si>
-    <t>41,29%</t>
-  </si>
-  <si>
-    <t>55,38%</t>
-  </si>
-  <si>
-    <t>41,06%</t>
-  </si>
-  <si>
-    <t>36,31%</t>
-  </si>
-  <si>
-    <t>45,26%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>65,07%</t>
-  </si>
-  <si>
-    <t>60,75%</t>
-  </si>
-  <si>
-    <t>69,2%</t>
-  </si>
-  <si>
-    <t>53,72%</t>
-  </si>
-  <si>
-    <t>48,5%</t>
-  </si>
-  <si>
-    <t>59,21%</t>
-  </si>
-  <si>
-    <t>60,51%</t>
-  </si>
-  <si>
-    <t>56,8%</t>
-  </si>
-  <si>
-    <t>63,61%</t>
-  </si>
-  <si>
-    <t>34,93%</t>
-  </si>
-  <si>
-    <t>30,8%</t>
-  </si>
-  <si>
-    <t>39,25%</t>
-  </si>
-  <si>
-    <t>46,28%</t>
-  </si>
-  <si>
-    <t>40,79%</t>
-  </si>
-  <si>
-    <t>51,5%</t>
+    <t>51,99%</t>
   </si>
   <si>
     <t>39,49%</t>
   </si>
   <si>
-    <t>36,39%</t>
-  </si>
-  <si>
-    <t>43,2%</t>
+    <t>36,1%</t>
+  </si>
+  <si>
+    <t>42,88%</t>
   </si>
   <si>
     <t>61,78%</t>
   </si>
   <si>
-    <t>59,34%</t>
-  </si>
-  <si>
-    <t>64,09%</t>
+    <t>59,0%</t>
+  </si>
+  <si>
+    <t>63,95%</t>
   </si>
   <si>
     <t>51,59%</t>
   </si>
   <si>
-    <t>48,09%</t>
-  </si>
-  <si>
-    <t>55,37%</t>
+    <t>48,2%</t>
+  </si>
+  <si>
+    <t>55,28%</t>
   </si>
   <si>
     <t>58,24%</t>
   </si>
   <si>
-    <t>56,3%</t>
-  </si>
-  <si>
-    <t>60,37%</t>
+    <t>56,04%</t>
+  </si>
+  <si>
+    <t>60,18%</t>
   </si>
   <si>
     <t>38,22%</t>
   </si>
   <si>
-    <t>35,91%</t>
-  </si>
-  <si>
-    <t>40,66%</t>
+    <t>36,05%</t>
+  </si>
+  <si>
+    <t>41,0%</t>
   </si>
   <si>
     <t>48,41%</t>
   </si>
   <si>
-    <t>44,63%</t>
-  </si>
-  <si>
-    <t>51,91%</t>
+    <t>44,72%</t>
+  </si>
+  <si>
+    <t>51,8%</t>
   </si>
   <si>
     <t>41,76%</t>
   </si>
   <si>
-    <t>39,63%</t>
-  </si>
-  <si>
-    <t>43,7%</t>
+    <t>39,82%</t>
+  </si>
+  <si>
+    <t>43,96%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -825,7 +825,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD3EBABA-38D4-4F16-8E10-1DFB2485C998}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCD2B71B-FF26-4625-987D-00627AF00F51}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P70A04_2007-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P70A04_2007-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9059B8BE-D7BC-4993-BC26-0C8D141DC5D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{56FF6DCD-D655-4152-8FE1-0E23F74A8AB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2E6AB44F-CBEC-4757-AE1B-3E92C526B3FF}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{73A08207-D1AC-4398-AFA6-85A8CABC9F3C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Si</t>
@@ -74,28 +74,28 @@
     <t>57,47%</t>
   </si>
   <si>
-    <t>41,28%</t>
-  </si>
-  <si>
-    <t>73,32%</t>
+    <t>40,65%</t>
+  </si>
+  <si>
+    <t>72,23%</t>
   </si>
   <si>
     <t>38,36%</t>
   </si>
   <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>66,62%</t>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>65,19%</t>
   </si>
   <si>
     <t>52,81%</t>
   </si>
   <si>
-    <t>39,37%</t>
-  </si>
-  <si>
-    <t>67,74%</t>
+    <t>37,16%</t>
+  </si>
+  <si>
+    <t>66,27%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,202 +104,202 @@
     <t>42,53%</t>
   </si>
   <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>58,72%</t>
+    <t>27,77%</t>
+  </si>
+  <si>
+    <t>59,35%</t>
   </si>
   <si>
     <t>61,64%</t>
   </si>
   <si>
-    <t>33,38%</t>
-  </si>
-  <si>
-    <t>82,25%</t>
+    <t>34,81%</t>
+  </si>
+  <si>
+    <t>81,72%</t>
   </si>
   <si>
     <t>47,19%</t>
   </si>
   <si>
-    <t>32,26%</t>
-  </si>
-  <si>
-    <t>60,63%</t>
+    <t>33,73%</t>
+  </si>
+  <si>
+    <t>62,84%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>50,96%</t>
   </si>
   <si>
-    <t>44,32%</t>
-  </si>
-  <si>
-    <t>57,29%</t>
+    <t>44,73%</t>
+  </si>
+  <si>
+    <t>56,73%</t>
   </si>
   <si>
     <t>38,61%</t>
   </si>
   <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>48,82%</t>
+    <t>27,94%</t>
+  </si>
+  <si>
+    <t>49,87%</t>
   </si>
   <si>
     <t>47,57%</t>
   </si>
   <si>
-    <t>41,72%</t>
-  </si>
-  <si>
-    <t>52,69%</t>
+    <t>41,88%</t>
+  </si>
+  <si>
+    <t>53,21%</t>
   </si>
   <si>
     <t>49,04%</t>
   </si>
   <si>
-    <t>42,71%</t>
-  </si>
-  <si>
-    <t>55,68%</t>
+    <t>43,27%</t>
+  </si>
+  <si>
+    <t>55,27%</t>
   </si>
   <si>
     <t>61,39%</t>
   </si>
   <si>
-    <t>51,18%</t>
-  </si>
-  <si>
-    <t>71,54%</t>
+    <t>50,13%</t>
+  </si>
+  <si>
+    <t>72,06%</t>
   </si>
   <si>
     <t>52,43%</t>
   </si>
   <si>
-    <t>47,31%</t>
-  </si>
-  <si>
-    <t>58,28%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>46,79%</t>
+  </si>
+  <si>
+    <t>58,12%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>63,72%</t>
   </si>
   <si>
-    <t>58,86%</t>
-  </si>
-  <si>
-    <t>68,45%</t>
+    <t>58,61%</t>
+  </si>
+  <si>
+    <t>67,82%</t>
   </si>
   <si>
     <t>54,21%</t>
   </si>
   <si>
-    <t>46,93%</t>
-  </si>
-  <si>
-    <t>60,65%</t>
+    <t>47,05%</t>
+  </si>
+  <si>
+    <t>60,58%</t>
   </si>
   <si>
     <t>60,64%</t>
   </si>
   <si>
-    <t>56,68%</t>
-  </si>
-  <si>
-    <t>64,36%</t>
+    <t>56,79%</t>
+  </si>
+  <si>
+    <t>64,63%</t>
   </si>
   <si>
     <t>36,28%</t>
   </si>
   <si>
-    <t>31,55%</t>
-  </si>
-  <si>
-    <t>41,14%</t>
+    <t>32,18%</t>
+  </si>
+  <si>
+    <t>41,39%</t>
   </si>
   <si>
     <t>45,79%</t>
   </si>
   <si>
-    <t>39,35%</t>
-  </si>
-  <si>
-    <t>53,07%</t>
+    <t>39,42%</t>
+  </si>
+  <si>
+    <t>52,95%</t>
   </si>
   <si>
     <t>39,36%</t>
   </si>
   <si>
-    <t>35,64%</t>
-  </si>
-  <si>
-    <t>43,32%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>35,37%</t>
+  </si>
+  <si>
+    <t>43,21%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>62,66%</t>
   </si>
   <si>
-    <t>56,89%</t>
-  </si>
-  <si>
-    <t>68,05%</t>
+    <t>57,09%</t>
+  </si>
+  <si>
+    <t>67,72%</t>
   </si>
   <si>
     <t>52,1%</t>
   </si>
   <si>
-    <t>43,81%</t>
-  </si>
-  <si>
-    <t>59,14%</t>
+    <t>44,86%</t>
+  </si>
+  <si>
+    <t>59,28%</t>
   </si>
   <si>
     <t>58,94%</t>
   </si>
   <si>
-    <t>54,06%</t>
-  </si>
-  <si>
-    <t>63,27%</t>
+    <t>54,27%</t>
+  </si>
+  <si>
+    <t>63,42%</t>
   </si>
   <si>
     <t>37,34%</t>
   </si>
   <si>
-    <t>31,95%</t>
-  </si>
-  <si>
-    <t>43,11%</t>
+    <t>32,28%</t>
+  </si>
+  <si>
+    <t>42,91%</t>
   </si>
   <si>
     <t>47,9%</t>
   </si>
   <si>
-    <t>40,86%</t>
-  </si>
-  <si>
-    <t>56,19%</t>
+    <t>40,72%</t>
+  </si>
+  <si>
+    <t>55,14%</t>
   </si>
   <si>
     <t>41,06%</t>
   </si>
   <si>
-    <t>36,73%</t>
-  </si>
-  <si>
-    <t>45,94%</t>
+    <t>36,58%</t>
+  </si>
+  <si>
+    <t>45,73%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -308,109 +308,109 @@
     <t>65,07%</t>
   </si>
   <si>
-    <t>60,31%</t>
-  </si>
-  <si>
-    <t>69,26%</t>
+    <t>60,72%</t>
+  </si>
+  <si>
+    <t>69,3%</t>
   </si>
   <si>
     <t>53,72%</t>
   </si>
   <si>
-    <t>48,01%</t>
-  </si>
-  <si>
-    <t>58,97%</t>
+    <t>48,36%</t>
+  </si>
+  <si>
+    <t>59,21%</t>
   </si>
   <si>
     <t>60,51%</t>
   </si>
   <si>
-    <t>57,12%</t>
-  </si>
-  <si>
-    <t>63,9%</t>
+    <t>57,08%</t>
+  </si>
+  <si>
+    <t>64,01%</t>
   </si>
   <si>
     <t>34,93%</t>
   </si>
   <si>
-    <t>30,74%</t>
-  </si>
-  <si>
-    <t>39,69%</t>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>39,28%</t>
   </si>
   <si>
     <t>46,28%</t>
   </si>
   <si>
-    <t>41,03%</t>
-  </si>
-  <si>
-    <t>51,99%</t>
+    <t>40,79%</t>
+  </si>
+  <si>
+    <t>51,64%</t>
   </si>
   <si>
     <t>39,49%</t>
   </si>
   <si>
-    <t>36,1%</t>
-  </si>
-  <si>
-    <t>42,88%</t>
+    <t>35,99%</t>
+  </si>
+  <si>
+    <t>42,92%</t>
   </si>
   <si>
     <t>61,78%</t>
   </si>
   <si>
-    <t>59,0%</t>
-  </si>
-  <si>
-    <t>63,95%</t>
+    <t>58,91%</t>
+  </si>
+  <si>
+    <t>64,08%</t>
   </si>
   <si>
     <t>51,59%</t>
   </si>
   <si>
-    <t>48,2%</t>
-  </si>
-  <si>
-    <t>55,28%</t>
+    <t>47,68%</t>
+  </si>
+  <si>
+    <t>54,88%</t>
   </si>
   <si>
     <t>58,24%</t>
   </si>
   <si>
-    <t>56,04%</t>
-  </si>
-  <si>
-    <t>60,18%</t>
+    <t>56,14%</t>
+  </si>
+  <si>
+    <t>60,44%</t>
   </si>
   <si>
     <t>38,22%</t>
   </si>
   <si>
-    <t>36,05%</t>
-  </si>
-  <si>
-    <t>41,0%</t>
+    <t>35,92%</t>
+  </si>
+  <si>
+    <t>41,09%</t>
   </si>
   <si>
     <t>48,41%</t>
   </si>
   <si>
-    <t>44,72%</t>
-  </si>
-  <si>
-    <t>51,8%</t>
+    <t>45,12%</t>
+  </si>
+  <si>
+    <t>52,32%</t>
   </si>
   <si>
     <t>41,76%</t>
   </si>
   <si>
-    <t>39,82%</t>
-  </si>
-  <si>
-    <t>43,96%</t>
+    <t>39,56%</t>
+  </si>
+  <si>
+    <t>43,86%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -825,7 +825,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCD2B71B-FF26-4625-987D-00627AF00F51}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFEAF968-07D8-4EAB-8D99-FD5995CB362E}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P70A04_2007-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P70A04_2007-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{56FF6DCD-D655-4152-8FE1-0E23F74A8AB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{190AEC21-067B-4E9A-B7AB-913D6969D909}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{73A08207-D1AC-4398-AFA6-85A8CABC9F3C}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1E51E4A6-4D5F-4CA5-AFE2-750EDCCC109E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -68,34 +68,34 @@
     <t>&lt;2.000hab</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>57,47%</t>
   </si>
   <si>
-    <t>40,65%</t>
-  </si>
-  <si>
-    <t>72,23%</t>
+    <t>40,12%</t>
+  </si>
+  <si>
+    <t>72,4%</t>
   </si>
   <si>
     <t>38,36%</t>
   </si>
   <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>65,19%</t>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>64,9%</t>
   </si>
   <si>
     <t>52,81%</t>
   </si>
   <si>
-    <t>37,16%</t>
-  </si>
-  <si>
-    <t>66,27%</t>
+    <t>38,97%</t>
+  </si>
+  <si>
+    <t>66,72%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>42,53%</t>
   </si>
   <si>
-    <t>27,77%</t>
-  </si>
-  <si>
-    <t>59,35%</t>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>59,88%</t>
   </si>
   <si>
     <t>61,64%</t>
   </si>
   <si>
-    <t>34,81%</t>
-  </si>
-  <si>
-    <t>81,72%</t>
+    <t>35,1%</t>
+  </si>
+  <si>
+    <t>83,06%</t>
   </si>
   <si>
     <t>47,19%</t>
   </si>
   <si>
-    <t>33,73%</t>
-  </si>
-  <si>
-    <t>62,84%</t>
+    <t>33,28%</t>
+  </si>
+  <si>
+    <t>61,03%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>50,96%</t>
   </si>
   <si>
-    <t>44,73%</t>
-  </si>
-  <si>
-    <t>56,73%</t>
+    <t>44,11%</t>
+  </si>
+  <si>
+    <t>57,57%</t>
   </si>
   <si>
     <t>38,61%</t>
   </si>
   <si>
-    <t>27,94%</t>
-  </si>
-  <si>
-    <t>49,87%</t>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>49,8%</t>
   </si>
   <si>
     <t>47,57%</t>
   </si>
   <si>
-    <t>41,88%</t>
-  </si>
-  <si>
-    <t>53,21%</t>
+    <t>42,15%</t>
+  </si>
+  <si>
+    <t>53,24%</t>
   </si>
   <si>
     <t>49,04%</t>
   </si>
   <si>
-    <t>43,27%</t>
-  </si>
-  <si>
-    <t>55,27%</t>
+    <t>42,43%</t>
+  </si>
+  <si>
+    <t>55,89%</t>
   </si>
   <si>
     <t>61,39%</t>
   </si>
   <si>
-    <t>50,13%</t>
-  </si>
-  <si>
-    <t>72,06%</t>
+    <t>50,2%</t>
+  </si>
+  <si>
+    <t>70,72%</t>
   </si>
   <si>
     <t>52,43%</t>
   </si>
   <si>
-    <t>46,79%</t>
-  </si>
-  <si>
-    <t>58,12%</t>
+    <t>46,76%</t>
+  </si>
+  <si>
+    <t>57,85%</t>
   </si>
   <si>
     <t>10-50.000 hab</t>
@@ -194,16 +194,16 @@
     <t>63,72%</t>
   </si>
   <si>
-    <t>58,61%</t>
-  </si>
-  <si>
-    <t>67,82%</t>
+    <t>58,97%</t>
+  </si>
+  <si>
+    <t>68,04%</t>
   </si>
   <si>
     <t>54,21%</t>
   </si>
   <si>
-    <t>47,05%</t>
+    <t>47,67%</t>
   </si>
   <si>
     <t>60,58%</t>
@@ -212,19 +212,19 @@
     <t>60,64%</t>
   </si>
   <si>
-    <t>56,79%</t>
-  </si>
-  <si>
-    <t>64,63%</t>
+    <t>56,98%</t>
+  </si>
+  <si>
+    <t>64,38%</t>
   </si>
   <si>
     <t>36,28%</t>
   </si>
   <si>
-    <t>32,18%</t>
-  </si>
-  <si>
-    <t>41,39%</t>
+    <t>31,96%</t>
+  </si>
+  <si>
+    <t>41,03%</t>
   </si>
   <si>
     <t>45,79%</t>
@@ -233,16 +233,16 @@
     <t>39,42%</t>
   </si>
   <si>
-    <t>52,95%</t>
+    <t>52,33%</t>
   </si>
   <si>
     <t>39,36%</t>
   </si>
   <si>
-    <t>35,37%</t>
-  </si>
-  <si>
-    <t>43,21%</t>
+    <t>35,62%</t>
+  </si>
+  <si>
+    <t>43,02%</t>
   </si>
   <si>
     <t>&gt;50.000hab</t>
@@ -251,55 +251,55 @@
     <t>62,66%</t>
   </si>
   <si>
-    <t>57,09%</t>
-  </si>
-  <si>
-    <t>67,72%</t>
+    <t>57,44%</t>
+  </si>
+  <si>
+    <t>68,8%</t>
   </si>
   <si>
     <t>52,1%</t>
   </si>
   <si>
-    <t>44,86%</t>
-  </si>
-  <si>
-    <t>59,28%</t>
+    <t>44,62%</t>
+  </si>
+  <si>
+    <t>58,71%</t>
   </si>
   <si>
     <t>58,94%</t>
   </si>
   <si>
-    <t>54,27%</t>
-  </si>
-  <si>
-    <t>63,42%</t>
+    <t>54,74%</t>
+  </si>
+  <si>
+    <t>63,69%</t>
   </si>
   <si>
     <t>37,34%</t>
   </si>
   <si>
-    <t>32,28%</t>
-  </si>
-  <si>
-    <t>42,91%</t>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>42,56%</t>
   </si>
   <si>
     <t>47,9%</t>
   </si>
   <si>
-    <t>40,72%</t>
-  </si>
-  <si>
-    <t>55,14%</t>
+    <t>41,29%</t>
+  </si>
+  <si>
+    <t>55,38%</t>
   </si>
   <si>
     <t>41,06%</t>
   </si>
   <si>
-    <t>36,58%</t>
-  </si>
-  <si>
-    <t>45,73%</t>
+    <t>36,31%</t>
+  </si>
+  <si>
+    <t>45,26%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -308,16 +308,16 @@
     <t>65,07%</t>
   </si>
   <si>
-    <t>60,72%</t>
-  </si>
-  <si>
-    <t>69,3%</t>
+    <t>60,75%</t>
+  </si>
+  <si>
+    <t>69,2%</t>
   </si>
   <si>
     <t>53,72%</t>
   </si>
   <si>
-    <t>48,36%</t>
+    <t>48,5%</t>
   </si>
   <si>
     <t>59,21%</t>
@@ -326,19 +326,19 @@
     <t>60,51%</t>
   </si>
   <si>
-    <t>57,08%</t>
-  </si>
-  <si>
-    <t>64,01%</t>
+    <t>56,8%</t>
+  </si>
+  <si>
+    <t>63,61%</t>
   </si>
   <si>
     <t>34,93%</t>
   </si>
   <si>
-    <t>30,7%</t>
-  </si>
-  <si>
-    <t>39,28%</t>
+    <t>30,8%</t>
+  </si>
+  <si>
+    <t>39,25%</t>
   </si>
   <si>
     <t>46,28%</t>
@@ -347,70 +347,70 @@
     <t>40,79%</t>
   </si>
   <si>
-    <t>51,64%</t>
+    <t>51,5%</t>
   </si>
   <si>
     <t>39,49%</t>
   </si>
   <si>
-    <t>35,99%</t>
-  </si>
-  <si>
-    <t>42,92%</t>
+    <t>36,39%</t>
+  </si>
+  <si>
+    <t>43,2%</t>
   </si>
   <si>
     <t>61,78%</t>
   </si>
   <si>
-    <t>58,91%</t>
-  </si>
-  <si>
-    <t>64,08%</t>
+    <t>59,34%</t>
+  </si>
+  <si>
+    <t>64,09%</t>
   </si>
   <si>
     <t>51,59%</t>
   </si>
   <si>
-    <t>47,68%</t>
-  </si>
-  <si>
-    <t>54,88%</t>
+    <t>48,09%</t>
+  </si>
+  <si>
+    <t>55,37%</t>
   </si>
   <si>
     <t>58,24%</t>
   </si>
   <si>
-    <t>56,14%</t>
-  </si>
-  <si>
-    <t>60,44%</t>
+    <t>56,3%</t>
+  </si>
+  <si>
+    <t>60,37%</t>
   </si>
   <si>
     <t>38,22%</t>
   </si>
   <si>
-    <t>35,92%</t>
-  </si>
-  <si>
-    <t>41,09%</t>
+    <t>35,91%</t>
+  </si>
+  <si>
+    <t>40,66%</t>
   </si>
   <si>
     <t>48,41%</t>
   </si>
   <si>
-    <t>45,12%</t>
-  </si>
-  <si>
-    <t>52,32%</t>
+    <t>44,63%</t>
+  </si>
+  <si>
+    <t>51,91%</t>
   </si>
   <si>
     <t>41,76%</t>
   </si>
   <si>
-    <t>39,56%</t>
-  </si>
-  <si>
-    <t>43,86%</t>
+    <t>39,63%</t>
+  </si>
+  <si>
+    <t>43,7%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -825,7 +825,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFEAF968-07D8-4EAB-8D99-FD5995CB362E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA031966-D579-44CD-A4CF-4FA6BF382368}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P70A04_2007-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P70A04_2007-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{190AEC21-067B-4E9A-B7AB-913D6969D909}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2FA24406-F53A-4AD9-9FFE-DCEB5D2BFF79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1E51E4A6-4D5F-4CA5-AFE2-750EDCCC109E}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{407A6726-BCE4-40B4-9CA2-3EBAED63200E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="107">
   <si>
     <t>Población según si hay un servicio de prevención de riesgos laborales en su empresa en 2007 (Tasa respuesta: 35,4%)</t>
   </si>
@@ -65,129 +65,72 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>57,47%</t>
-  </si>
-  <si>
-    <t>40,12%</t>
-  </si>
-  <si>
-    <t>72,4%</t>
-  </si>
-  <si>
-    <t>38,36%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>64,9%</t>
-  </si>
-  <si>
-    <t>52,81%</t>
-  </si>
-  <si>
-    <t>38,97%</t>
-  </si>
-  <si>
-    <t>66,72%</t>
+    <t>51,94%</t>
+  </si>
+  <si>
+    <t>45,09%</t>
+  </si>
+  <si>
+    <t>57,33%</t>
+  </si>
+  <si>
+    <t>38,58%</t>
+  </si>
+  <si>
+    <t>29,82%</t>
+  </si>
+  <si>
+    <t>47,57%</t>
+  </si>
+  <si>
+    <t>48,33%</t>
+  </si>
+  <si>
+    <t>43,11%</t>
+  </si>
+  <si>
+    <t>53,51%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>42,53%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>59,88%</t>
-  </si>
-  <si>
-    <t>61,64%</t>
-  </si>
-  <si>
-    <t>35,1%</t>
-  </si>
-  <si>
-    <t>83,06%</t>
-  </si>
-  <si>
-    <t>47,19%</t>
-  </si>
-  <si>
-    <t>33,28%</t>
-  </si>
-  <si>
-    <t>61,03%</t>
+    <t>48,06%</t>
+  </si>
+  <si>
+    <t>42,67%</t>
+  </si>
+  <si>
+    <t>54,91%</t>
+  </si>
+  <si>
+    <t>61,42%</t>
+  </si>
+  <si>
+    <t>52,43%</t>
+  </si>
+  <si>
+    <t>70,18%</t>
+  </si>
+  <si>
+    <t>51,67%</t>
+  </si>
+  <si>
+    <t>46,49%</t>
+  </si>
+  <si>
+    <t>56,89%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>50,96%</t>
-  </si>
-  <si>
-    <t>44,11%</t>
-  </si>
-  <si>
-    <t>57,57%</t>
-  </si>
-  <si>
-    <t>38,61%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>49,8%</t>
-  </si>
-  <si>
-    <t>47,57%</t>
-  </si>
-  <si>
-    <t>42,15%</t>
-  </si>
-  <si>
-    <t>53,24%</t>
-  </si>
-  <si>
-    <t>49,04%</t>
-  </si>
-  <si>
-    <t>42,43%</t>
-  </si>
-  <si>
-    <t>55,89%</t>
-  </si>
-  <si>
-    <t>61,39%</t>
-  </si>
-  <si>
-    <t>50,2%</t>
-  </si>
-  <si>
-    <t>70,72%</t>
-  </si>
-  <si>
-    <t>52,43%</t>
-  </si>
-  <si>
-    <t>46,76%</t>
-  </si>
-  <si>
-    <t>57,85%</t>
-  </si>
-  <si>
     <t>10-50.000 hab</t>
   </si>
   <si>
@@ -245,7 +188,7 @@
     <t>43,02%</t>
   </si>
   <si>
-    <t>&gt;50.000hab</t>
+    <t>&gt;50.000 hab</t>
   </si>
   <si>
     <t>62,66%</t>
@@ -825,8 +768,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA031966-D579-44CD-A4CF-4FA6BF382368}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BE61D03-6302-4DC2-BDA1-35CFC28DCA9D}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -943,10 +886,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>20</v>
+        <v>137</v>
       </c>
       <c r="D4" s="7">
-        <v>24553</v>
+        <v>147430</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -958,10 +901,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="I4" s="7">
-        <v>5282</v>
+        <v>40560</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -973,10 +916,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>26</v>
+        <v>177</v>
       </c>
       <c r="N4" s="7">
-        <v>29836</v>
+        <v>187989</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -994,10 +937,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>17</v>
+        <v>134</v>
       </c>
       <c r="D5" s="7">
-        <v>18170</v>
+        <v>136399</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1009,10 +952,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="I5" s="7">
-        <v>8489</v>
+        <v>64576</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1024,10 +967,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>26</v>
+        <v>196</v>
       </c>
       <c r="N5" s="7">
-        <v>26659</v>
+        <v>200975</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1045,10 +988,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>37</v>
+        <v>271</v>
       </c>
       <c r="D6" s="7">
-        <v>42723</v>
+        <v>283829</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1060,10 +1003,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>15</v>
+        <v>102</v>
       </c>
       <c r="I6" s="7">
-        <v>13771</v>
+        <v>105136</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1075,10 +1018,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>52</v>
+        <v>373</v>
       </c>
       <c r="N6" s="7">
-        <v>56495</v>
+        <v>388964</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1098,10 +1041,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>117</v>
+        <v>264</v>
       </c>
       <c r="D7" s="7">
-        <v>122877</v>
+        <v>297748</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1113,10 +1056,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>34</v>
+        <v>112</v>
       </c>
       <c r="I7" s="7">
-        <v>35277</v>
+        <v>121380</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1128,10 +1071,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>151</v>
+        <v>376</v>
       </c>
       <c r="N7" s="7">
-        <v>158154</v>
+        <v>419129</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1149,10 +1092,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>117</v>
+        <v>154</v>
       </c>
       <c r="D8" s="7">
-        <v>118229</v>
+        <v>169493</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1164,10 +1107,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="I8" s="7">
-        <v>56087</v>
+        <v>102513</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1179,10 +1122,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>170</v>
+        <v>250</v>
       </c>
       <c r="N8" s="7">
-        <v>174316</v>
+        <v>272005</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1200,10 +1143,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>234</v>
+        <v>418</v>
       </c>
       <c r="D9" s="7">
-        <v>241106</v>
+        <v>467241</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1215,10 +1158,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>87</v>
+        <v>208</v>
       </c>
       <c r="I9" s="7">
-        <v>91364</v>
+        <v>223893</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1230,10 +1173,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>321</v>
+        <v>626</v>
       </c>
       <c r="N9" s="7">
-        <v>332470</v>
+        <v>691134</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1253,10 +1196,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>264</v>
+        <v>199</v>
       </c>
       <c r="D10" s="7">
-        <v>297748</v>
+        <v>216015</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1268,10 +1211,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="I10" s="7">
-        <v>121380</v>
+        <v>97717</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1283,10 +1226,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>376</v>
+        <v>300</v>
       </c>
       <c r="N10" s="7">
-        <v>419129</v>
+        <v>313731</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1304,10 +1247,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>154</v>
+        <v>120</v>
       </c>
       <c r="D11" s="7">
-        <v>169493</v>
+        <v>128750</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1319,10 +1262,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="I11" s="7">
-        <v>102513</v>
+        <v>89838</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1334,10 +1277,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>250</v>
+        <v>208</v>
       </c>
       <c r="N11" s="7">
-        <v>272005</v>
+        <v>218589</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1355,10 +1298,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>418</v>
+        <v>319</v>
       </c>
       <c r="D12" s="7">
-        <v>467241</v>
+        <v>344765</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1370,10 +1313,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>208</v>
+        <v>189</v>
       </c>
       <c r="I12" s="7">
-        <v>223893</v>
+        <v>187555</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1385,10 +1328,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>626</v>
+        <v>508</v>
       </c>
       <c r="N12" s="7">
-        <v>691134</v>
+        <v>532320</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1408,10 +1351,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>199</v>
+        <v>324</v>
       </c>
       <c r="D13" s="7">
-        <v>216015</v>
+        <v>311028</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -1423,10 +1366,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>101</v>
+        <v>166</v>
       </c>
       <c r="I13" s="7">
-        <v>97717</v>
+        <v>172675</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -1438,10 +1381,10 @@
         <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>300</v>
+        <v>490</v>
       </c>
       <c r="N13" s="7">
-        <v>313731</v>
+        <v>483703</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -1459,10 +1402,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>120</v>
+        <v>171</v>
       </c>
       <c r="D14" s="7">
-        <v>128750</v>
+        <v>166939</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -1474,10 +1417,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>88</v>
+        <v>137</v>
       </c>
       <c r="I14" s="7">
-        <v>89838</v>
+        <v>148733</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -1489,10 +1432,10 @@
         <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>208</v>
+        <v>308</v>
       </c>
       <c r="N14" s="7">
-        <v>218589</v>
+        <v>315672</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -1510,10 +1453,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>319</v>
+        <v>495</v>
       </c>
       <c r="D15" s="7">
-        <v>344765</v>
+        <v>477967</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1525,10 +1468,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>189</v>
+        <v>303</v>
       </c>
       <c r="I15" s="7">
-        <v>187555</v>
+        <v>321408</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1540,10 +1483,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>508</v>
+        <v>798</v>
       </c>
       <c r="N15" s="7">
-        <v>532320</v>
+        <v>799375</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1557,55 +1500,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>324</v>
+        <v>924</v>
       </c>
       <c r="D16" s="7">
-        <v>311028</v>
+        <v>972221</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>419</v>
+      </c>
+      <c r="I16" s="7">
+        <v>432331</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H16" s="7">
-        <v>166</v>
-      </c>
-      <c r="I16" s="7">
-        <v>172675</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>1343</v>
+      </c>
+      <c r="N16" s="7">
+        <v>1404553</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="M16" s="7">
-        <v>490</v>
-      </c>
-      <c r="N16" s="7">
-        <v>483703</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1614,49 +1557,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>171</v>
+        <v>579</v>
       </c>
       <c r="D17" s="7">
-        <v>166939</v>
+        <v>601581</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>383</v>
+      </c>
+      <c r="I17" s="7">
+        <v>405661</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="H17" s="7">
-        <v>137</v>
-      </c>
-      <c r="I17" s="7">
-        <v>148733</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>962</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1007241</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="M17" s="7">
-        <v>308</v>
-      </c>
-      <c r="N17" s="7">
-        <v>315672</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1665,10 +1608,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>495</v>
+        <v>1503</v>
       </c>
       <c r="D18" s="7">
-        <v>477967</v>
+        <v>1573802</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -1680,10 +1623,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>303</v>
+        <v>802</v>
       </c>
       <c r="I18" s="7">
-        <v>321408</v>
+        <v>837992</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1695,10 +1638,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>798</v>
+        <v>2305</v>
       </c>
       <c r="N18" s="7">
-        <v>799375</v>
+        <v>2411794</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -1711,171 +1654,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>924</v>
-      </c>
-      <c r="D19" s="7">
-        <v>972221</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="H19" s="7">
-        <v>419</v>
-      </c>
-      <c r="I19" s="7">
-        <v>432331</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="M19" s="7">
-        <v>1343</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1404553</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>579</v>
-      </c>
-      <c r="D20" s="7">
-        <v>601581</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="H20" s="7">
-        <v>383</v>
-      </c>
-      <c r="I20" s="7">
-        <v>405661</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="M20" s="7">
-        <v>962</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1007241</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1503</v>
-      </c>
-      <c r="D21" s="7">
-        <v>1573802</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>802</v>
-      </c>
-      <c r="I21" s="7">
-        <v>837992</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>2305</v>
-      </c>
-      <c r="N21" s="7">
-        <v>2411794</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
